--- a/parse/mc_list_gk.xlsx
+++ b/parse/mc_list_gk.xlsx
@@ -477,79 +477,79 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный 2х1000х2000</t>
+          <t>Лист горячекатаный 2х1250х2500</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>72 490       ​</t>
+          <t>62 990</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный 2х1250х2500</t>
+          <t>Лист горячекатаный низколегир 2х1250х2500 10ХСНД</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>62 990</t>
+          <t>62 990       ​</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный низколегир 2х1250х2500 10ХСНД</t>
+          <t>Лист горячекатаный 2.5х1250х2500</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>62 990       ​</t>
+          <t>99 890</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный 2.5х1250х2500</t>
+          <t>горячекатаный лист из конструкционной стали 3х1250х2500</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>99 890</t>
+          <t>198 900</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный лист из конструкционной стали 3х1250х2500</t>
+          <t>горячекатаный нержавеющий лист б/н 3х1250х2500</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>198 900</t>
+          <t>198 900       ​</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист б/н 3х1250х2500</t>
+          <t>горячекатаный нержавеющий лист б/н 3х1500х3000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>198 900       ​</t>
+          <t>62 990</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист б/н 3х1500х3000</t>
+          <t>горячекатаный нержавеющий лист н/с 3х1000х2000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 3х1000х2000</t>
+          <t>горячекатаный нержавеющий лист н/с 3х1240х2500</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -573,43 +573,43 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 3х1240х2500</t>
+          <t>горячекатаный нержавеющий лист н/с 3х1250х2500</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>62 990</t>
+          <t>63 990</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 3х1250х2500</t>
+          <t>горячекатаный нержавеющий лист н/с 3х1500х3000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>63 990</t>
+          <t>109 990</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 3х1500х3000</t>
+          <t>горячекатаный нержавеющий лист н/с 3х1500х6000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>109 990</t>
+          <t>58 490</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 3х1500х6000</t>
+          <t>Лист горячекатаный 3х1250х2500</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -621,79 +621,79 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный 3х1250х2500</t>
+          <t>Лист горячекатаный 3х1500х3000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>58 490</t>
+          <t>60 490</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный 3х1500х3000</t>
+          <t>Лист горячекатаный 3х1500х6000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>58 490</t>
+          <t>95 990</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный 3х1500х6000</t>
+          <t>Лист горячекатаный низколегир 3х1250х2500</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>118 990</t>
+          <t>95 890</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный низколегир 3х1250х2500</t>
+          <t>Лист горячекатаный низколегир 3х1500х3000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>118 890</t>
+          <t>95 890       ​</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный низколегир 3х1500х3000</t>
+          <t>Лист горячекатаный низколегир 3х1500х6000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>118 890       ​</t>
+          <t>118 990</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Лист горячекатаный низколегир 3х1500х6000</t>
+          <t>горячекатаный лист из конструкционной стали 4х1500х6000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>95 990</t>
+          <t>118 890       ​</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный лист из конструкционной стали 4х1500х6000</t>
+          <t>горячекатаный нержавеющий лист б/н 4х1000х2000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -705,19 +705,19 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист б/н 4х1000х2000</t>
+          <t>горячекатаный нержавеющий лист б/н 4х1250х2500</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>198 900</t>
+          <t>198 900       ​</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист б/н 4х1250х2500</t>
+          <t>горячекатаный нержавеющий лист б/н 4х1500х3000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист б/н 4х1500х3000</t>
+          <t>горячекатаный нержавеющий лист б/н 4х1500х6000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -741,19 +741,19 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист б/н 4х1500х6000</t>
+          <t>горячекатаный нержавеющий лист н/с 4х1000х2000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>142 250       ​</t>
+          <t>167 110</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 4х1000х2000</t>
+          <t>горячекатаный нержавеющий лист н/с 4х1240х2500</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -765,24 +765,24 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 4х1240х2500</t>
+          <t>горячекатаный нержавеющий лист н/с 4х1250х2500</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>236 000</t>
+          <t>149 000       ​</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>горячекатаный нержавеющий лист н/с 4х1250х2500</t>
+          <t>горячекатаный нержавеющий лист н/с 4х1500</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>275 000</t>
+          <t>236 000</t>
         </is>
       </c>
     </row>
